--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1516566.892061873</v>
+        <v>-1519267.760779272</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>323.8388427438209</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>244.357254833048</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>1.781160222249666</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>51.2765923408181</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.31023959496076</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +911,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>2.264474711071196</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>71.63950530374223</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>24.89454717107162</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1102,7 +1102,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>242.4567935527747</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>293.8990719699915</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>30.95313829082776</v>
+        <v>103.3387326418228</v>
       </c>
     </row>
     <row r="11">
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>133.605923711194</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>126.9263824507425</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>140.176011444184</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>105.9893107373036</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>177.0850116794024</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652696</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808293</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
         <v>193.1208028352485</v>
@@ -3007,16 +3007,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="32">
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261736</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545294</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541849</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352485</v>
@@ -3244,16 +3244,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
@@ -3481,16 +3481,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1502.660066001256</v>
+        <v>409.5124851747536</v>
       </c>
       <c r="C2" t="n">
-        <v>1133.697549060844</v>
+        <v>409.5124851747536</v>
       </c>
       <c r="D2" t="n">
-        <v>775.431850454094</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E2" t="n">
-        <v>775.431850454094</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F2" t="n">
-        <v>364.4459456644865</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G2" t="n">
-        <v>364.4459456644865</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.89447953245</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W2" t="n">
-        <v>1876.125824262336</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X2" t="n">
-        <v>1502.660066001256</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y2" t="n">
-        <v>1502.660066001256</v>
+        <v>736.6224273402293</v>
       </c>
     </row>
     <row r="3">
@@ -4401,28 +4401,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1590.995858314208</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>1422.059675386301</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>1271.943035973965</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>1124.029942391572</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>977.1399948936618</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>977.1399948936618</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936618</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936618</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878781</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400155</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>2562.339328400155</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>2273.220990903993</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>2273.220990903993</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W4" t="n">
-        <v>2221.426453185995</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X4" t="n">
-        <v>1993.436902287978</v>
+        <v>53.04593830764924</v>
       </c>
       <c r="Y4" t="n">
-        <v>1772.644323144448</v>
+        <v>53.04593830764924</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1653.287154902436</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="C5" t="n">
-        <v>1284.324637962024</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="D5" t="n">
-        <v>926.0589393552737</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570294</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4565,13 +4565,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.59368700598</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>2022.530799662409</v>
+        <v>1973.026070603629</v>
       </c>
       <c r="W5" t="n">
-        <v>1669.762144392295</v>
+        <v>1620.257415333515</v>
       </c>
       <c r="X5" t="n">
-        <v>1669.762144392295</v>
+        <v>1620.257415333515</v>
       </c>
       <c r="Y5" t="n">
-        <v>1669.762144392295</v>
+        <v>1230.118083357703</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4632,40 +4632,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>854.8429682049862</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4683,7 +4683,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>793.7763443906351</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="C7" t="n">
-        <v>793.7763443906351</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1021.765895288652</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V7" t="n">
-        <v>1021.765895288652</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="W7" t="n">
-        <v>1021.765895288652</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="X7" t="n">
-        <v>793.7763443906351</v>
+        <v>597.1475965504969</v>
       </c>
       <c r="Y7" t="n">
-        <v>793.7763443906351</v>
+        <v>376.3550174069668</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1217.950988797912</v>
+        <v>1195.040196257711</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190805</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1852.996172847234</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>1852.996172847234</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X8" t="n">
-        <v>1608.090320773724</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="Y8" t="n">
-        <v>1217.950988797912</v>
+        <v>1581.640036321833</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4875,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
         <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.344461831649</v>
+        <v>383.6188956900839</v>
       </c>
       <c r="X10" t="n">
-        <v>864.354910933632</v>
+        <v>155.6293447920665</v>
       </c>
       <c r="Y10" t="n">
-        <v>833.0891146802707</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="11">
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5072,19 +5072,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>747.3737171343192</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5273,10 +5273,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>372.4964262156759</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>867.8220324314346</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1835.869149758807</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1581.18466155292</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5501,22 +5501,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5601,19 +5601,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2272.857469997003</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2272.857469997003</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>554.5813165460164</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>385.6451336181095</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2018.188796316454</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1729.113569660651</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1474.429081454764</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1185.011911417804</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>957.0223605197863</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>736.2297813762561</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
         <v>1948.813509611463</v>
@@ -5978,61 +5978,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6127,22 +6127,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6218,52 +6218,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6297,22 +6297,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6479,7 +6479,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319335</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656828</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150035</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942666</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580125</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345487</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384031</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6728,19 +6728,19 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319331</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797186</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,16 +7117,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,10 +7327,10 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7354,22 +7354,22 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X40" t="n">
         <v>1280.33868158239</v>
@@ -7400,58 +7400,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345474</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954144</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380723</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311317</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
         <v>2179.340199382518</v>
@@ -7588,22 +7588,22 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954145</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,19 +8067,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>211.0329012241564</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>265.0304328515145</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.3692565058941</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-4.321857195429865e-13</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>168.8500120862738</v>
+        <v>58.89499891965971</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>402.7664347977596</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>56.66129772935733</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,10 +22601,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>178.0508199596876</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>15.00954930701832</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>19.50758019582666</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>146.0084629450601</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>75.03697526434104</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>40.32043864788585</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1058853.235191174</v>
+        <v>1058853.235191173</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1278575.222091908</v>
+        <v>1278575.222091907</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1278575.222091908</v>
+        <v>1278575.222091907</v>
       </c>
     </row>
     <row r="8">
@@ -26317,7 +26317,7 @@
         <v>143682.3097262496</v>
       </c>
       <c r="D2" t="n">
-        <v>143682.3097262495</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="E2" t="n">
         <v>141250.6549457511</v>
@@ -26326,7 +26326,7 @@
         <v>141250.6549457511</v>
       </c>
       <c r="G2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.654945751</v>
       </c>
       <c r="H2" t="n">
         <v>141250.6549457511</v>
@@ -26338,22 +26338,22 @@
         <v>141250.6549457511</v>
       </c>
       <c r="K2" t="n">
+        <v>143682.3097262496</v>
+      </c>
+      <c r="L2" t="n">
+        <v>143682.3097262496</v>
+      </c>
+      <c r="M2" t="n">
+        <v>143682.3097262496</v>
+      </c>
+      <c r="N2" t="n">
         <v>143682.3097262497</v>
-      </c>
-      <c r="L2" t="n">
-        <v>143682.3097262497</v>
-      </c>
-      <c r="M2" t="n">
-        <v>143682.3097262497</v>
-      </c>
-      <c r="N2" t="n">
-        <v>143682.3097262496</v>
       </c>
       <c r="O2" t="n">
         <v>143682.3097262496</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,22 +26390,22 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
+        <v>19427.71799363178</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>132607.2937289267</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>19427.71799363181</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>132607.2937289268</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>19427.7179936318</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44177.68267983171</v>
+        <v>44177.68267983163</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618637</v>
@@ -26424,7 +26424,7 @@
         <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.31242673194</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
@@ -26433,28 +26433,28 @@
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731985</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426732037</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426732036</v>
+        <v>8117.312426731959</v>
       </c>
       <c r="K4" t="n">
+        <v>16108.17168982544</v>
+      </c>
+      <c r="L4" t="n">
+        <v>16108.17168982547</v>
+      </c>
+      <c r="M4" t="n">
         <v>16108.17168982545</v>
       </c>
-      <c r="L4" t="n">
-        <v>16108.17168982552</v>
-      </c>
-      <c r="M4" t="n">
-        <v>16108.17168982548</v>
-      </c>
       <c r="N4" t="n">
-        <v>16108.17168982545</v>
+        <v>16108.17168982549</v>
       </c>
       <c r="O4" t="n">
-        <v>16108.17168982541</v>
+        <v>16108.17168982543</v>
       </c>
       <c r="P4" t="n">
         <v>16108.17168982544</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1135822.394850069</v>
+        <v>-1136217.215791223</v>
       </c>
       <c r="C6" t="n">
         <v>-83573.46297545882</v>
       </c>
       <c r="D6" t="n">
-        <v>-83573.46297545891</v>
+        <v>-83573.46297545888</v>
       </c>
       <c r="E6" t="n">
-        <v>-475474.628929434</v>
+        <v>-475509.3668548697</v>
       </c>
       <c r="F6" t="n">
-        <v>32010.81269511201</v>
+        <v>31976.07476967634</v>
       </c>
       <c r="G6" t="n">
-        <v>32010.81269511198</v>
+        <v>31976.07476967626</v>
       </c>
       <c r="H6" t="n">
-        <v>32010.81269511201</v>
+        <v>31976.07476967631</v>
       </c>
       <c r="I6" t="n">
-        <v>32010.81269511199</v>
+        <v>31976.07476967631</v>
       </c>
       <c r="J6" t="n">
-        <v>-135594.3651148706</v>
+        <v>-135629.1030403062</v>
       </c>
       <c r="K6" t="n">
-        <v>4982.304188876995</v>
+        <v>4982.304188877009</v>
       </c>
       <c r="L6" t="n">
-        <v>24410.02218250879</v>
+        <v>24410.02218250878</v>
       </c>
       <c r="M6" t="n">
         <v>-108197.271546418</v>
       </c>
       <c r="N6" t="n">
-        <v>24410.02218250875</v>
+        <v>24410.02218250878</v>
       </c>
       <c r="O6" t="n">
         <v>24410.02218250881</v>
       </c>
       <c r="P6" t="n">
-        <v>4982.304188876966</v>
+        <v>4982.304188877009</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203968</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26793,7 +26793,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26932,22 +26932,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203976</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>213.8838295772068</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.10961094395185</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>235.2464059957729</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>366.4236020685198</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>325.4877837590637</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>108.1924748781951</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>123.7209258471407</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>127.2743071256944</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>92.33886668606209</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -28059,13 +28059,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>187.631515061267</v>
+        <v>115.245920710272</v>
       </c>
     </row>
     <row r="11">
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,25 +31440,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>266.3926848685833</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32236,7 +32236,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
         <v>867.846407116256</v>
@@ -32321,22 +32321,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>338.6542681503486</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,10 +32570,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
@@ -33032,31 +33032,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>754.0002396832324</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935915</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,28 +33731,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33974,28 +33974,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175688</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>602.2300008170303</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>600.4551148476376</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>365.7939385020172</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>560.2586790698759</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>128.5512458942243</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35884,7 +35884,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35969,22 +35969,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>196.0580237059041</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,10 +36218,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>622.6585275998991</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715732</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
         <v>397.5465471980852</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37470,13 +37470,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37622,28 +37622,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902961</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,10 +37953,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
